--- a/data/chi_vs_sed_size_stats.xlsx
+++ b/data/chi_vs_sed_size_stats.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Documents\flood_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E0954A-81DE-4C89-9DB6-14664E844974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4BF6B7-AA9A-4CEC-B1E6-4B769FF38CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{AB33601A-E509-4D70-ADDC-02C066849C23}"/>
   </bookViews>
@@ -2099,10 +2099,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'D50-ksn'!$B$2:$I$2</c:f>
+              <c:f>'D50-ksn'!$B$2:$H$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>474.05996705833724</c:v>
                 </c:pt>
@@ -2122,17 +2122,17 @@
                   <c:v>924.53948951473865</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>259.4468177123203</c:v>
+                  <c:v>532.43948266692178</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'D50-ksn'!$B$8:$I$8</c:f>
+              <c:f>'D50-ksn'!$B$8:$H$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>17.399999999999999</c:v>
                 </c:pt>
@@ -2255,7 +2255,7 @@
                   <c:v>687.52531289068031</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>209.64933278281262</c:v>
+                  <c:v>433.42530755801687</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2394,7 +2394,7 @@
                   <c:v>363.00745077680978</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>197.1340204903743</c:v>
+                  <c:v>247.15755278654058</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2533,7 +2533,7 @@
                   <c:v>256.53742295392158</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>223.61749454989044</c:v>
+                  <c:v>182.2026700324831</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2675,7 +2675,7 @@
                   <c:v>242.10077400943081</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>220.0857152626414</c:v>
+                  <c:v>171.4960802591504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4722,16 +4722,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>891540</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5639,7 +5639,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5692,7 +5692,7 @@
         <v>924.53948951473865</v>
       </c>
       <c r="H2">
-        <v>259.4468177123203</v>
+        <v>532.43948266692178</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -5715,7 +5715,7 @@
         <v>687.52531289068031</v>
       </c>
       <c r="H3">
-        <v>209.64933278281262</v>
+        <v>433.42530755801687</v>
       </c>
       <c r="I3">
         <v>191.31929913179329</v>
@@ -5741,7 +5741,7 @@
         <v>363.00745077680978</v>
       </c>
       <c r="H4">
-        <v>197.1340204903743</v>
+        <v>247.15755278654058</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -5764,7 +5764,7 @@
         <v>256.53742295392158</v>
       </c>
       <c r="H5">
-        <v>223.61749454989044</v>
+        <v>182.2026700324831</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -5790,7 +5790,7 @@
         <v>242.10077400943081</v>
       </c>
       <c r="H6">
-        <v>220.0857152626414</v>
+        <v>171.4960802591504</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">

--- a/data/chi_vs_sed_size_stats.xlsx
+++ b/data/chi_vs_sed_size_stats.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Documents\flood_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4BF6B7-AA9A-4CEC-B1E6-4B769FF38CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B8379F-068E-42E2-80C0-E3BA2FADD820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{AB33601A-E509-4D70-ADDC-02C066849C23}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
   <si>
     <t>shallow 1</t>
   </si>
@@ -125,6 +125,9 @@
   <si>
     <t>D10</t>
   </si>
+  <si>
+    <t>d</t>
+  </si>
 </sst>
 </file>
 
@@ -170,10 +173,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -2162,139 +2164,6 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>D84</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'D50-ksn'!$B$3:$H$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>377.63947934944144</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>469.89600257405681</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1415.7109558461329</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.0">
-                  <c:v>390.1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>687.52531289068031</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>433.42530755801687</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'D50-ksn'!$B$8:$H$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>17.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>57.9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>117.7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>59.2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44.8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D4DC-4BD3-8ACD-ACB46BB73D34}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
@@ -2430,145 +2299,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-D4DC-4BD3-8ACD-ACB46BB73D34}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>D16</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="8.2732454154823484E-2"/>
-                  <c:y val="1.6404199475065617E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'D50-ksn'!$B$5:$H$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>132.42279873815161</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>183.42015519126639</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>572.70582144105799</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.0">
-                  <c:v>135.16899785956994</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>256.53742295392158</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>182.2026700324831</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'D50-ksn'!$B$8:$H$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>17.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>57.9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>117.7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>59.2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44.8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-D4DC-4BD3-8ACD-ACB46BB73D34}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2724,6 +2454,310 @@
         </c:dLbls>
         <c:axId val="1826500527"/>
         <c:axId val="1826501359"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:v>D84</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:trendline>
+                  <c:spPr>
+                    <a:ln w="19050" cap="rnd">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:prstDash val="sysDot"/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:trendlineType val="linear"/>
+                  <c:dispRSqr val="1"/>
+                  <c:dispEq val="1"/>
+                  <c:trendlineLbl>
+                    <c:numFmt formatCode="General" sourceLinked="0"/>
+                    <c:spPr>
+                      <a:noFill/>
+                      <a:ln>
+                        <a:noFill/>
+                      </a:ln>
+                      <a:effectLst/>
+                    </c:spPr>
+                    <c:txPr>
+                      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr>
+                          <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="65000"/>
+                                <a:lumOff val="35000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:defRPr>
+                        </a:pPr>
+                        <a:endParaRPr lang="en-US"/>
+                      </a:p>
+                    </c:txPr>
+                  </c:trendlineLbl>
+                </c:trendline>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'D50-ksn'!$B$3:$H$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>377.63947934944144</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>469.89600257405681</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1415.7109558461329</c:v>
+                      </c:pt>
+                      <c:pt idx="4" formatCode="0.0">
+                        <c:v>390.1</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>687.52531289068031</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>433.42530755801687</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'D50-ksn'!$B$8:$H$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>17.399999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>57.9</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>117.7</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>59.2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>44.8</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-D4DC-4BD3-8ACD-ACB46BB73D34}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:v>D16</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:trendline>
+                  <c:spPr>
+                    <a:ln w="19050" cap="rnd">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                      <a:prstDash val="sysDot"/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:trendlineType val="linear"/>
+                  <c:dispRSqr val="1"/>
+                  <c:dispEq val="1"/>
+                  <c:trendlineLbl>
+                    <c:layout>
+                      <c:manualLayout>
+                        <c:x val="8.2732454154823484E-2"/>
+                        <c:y val="1.6404199475065617E-2"/>
+                      </c:manualLayout>
+                    </c:layout>
+                    <c:numFmt formatCode="General" sourceLinked="0"/>
+                    <c:spPr>
+                      <a:noFill/>
+                      <a:ln>
+                        <a:noFill/>
+                      </a:ln>
+                      <a:effectLst/>
+                    </c:spPr>
+                    <c:txPr>
+                      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr>
+                          <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="65000"/>
+                                <a:lumOff val="35000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:defRPr>
+                        </a:pPr>
+                        <a:endParaRPr lang="en-US"/>
+                      </a:p>
+                    </c:txPr>
+                  </c:trendlineLbl>
+                </c:trendline>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'D50-ksn'!$B$5:$H$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>132.42279873815161</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>183.42015519126639</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>572.70582144105799</c:v>
+                      </c:pt>
+                      <c:pt idx="4" formatCode="0.0">
+                        <c:v>135.16899785956994</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>256.53742295392158</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>182.2026700324831</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'D50-ksn'!$B$8:$H$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>17.399999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>57.9</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>117.7</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>59.2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>44.8</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-D4DC-4BD3-8ACD-ACB46BB73D34}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="1826500527"/>
@@ -5506,7 +5540,7 @@
       <c r="I11">
         <v>66.900000000000006</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11">
         <v>59.2</v>
       </c>
       <c r="L11" s="1">
@@ -5636,9 +5670,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{286F7C6C-020F-453C-8BF6-FCD39A3E6160}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -5685,7 +5719,7 @@
       <c r="E2">
         <v>1665.7903487689593</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>487.1</v>
       </c>
       <c r="G2">
@@ -5708,7 +5742,7 @@
       <c r="D3">
         <v>1415.7109558461329</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>390.1</v>
       </c>
       <c r="G3">
@@ -5734,7 +5768,7 @@
       <c r="D4">
         <v>850.07263091425239</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>213.4</v>
       </c>
       <c r="G4">
@@ -5757,7 +5791,7 @@
       <c r="D5">
         <v>572.70582144105799</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>135.16899785956994</v>
       </c>
       <c r="G5">
@@ -5783,7 +5817,7 @@
       <c r="E6">
         <v>522.1801363088058</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>124.20206553821464</v>
       </c>
       <c r="G6">
@@ -5823,8 +5857,12 @@
       <c r="C10">
         <v>25.6</v>
       </c>
-      <c r="F10" s="2"/>
       <c r="G10" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/chi_vs_sed_size_stats.xlsx
+++ b/data/chi_vs_sed_size_stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Documents\flood_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B8379F-068E-42E2-80C0-E3BA2FADD820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A08430E-5A98-415C-9529-E7A5E75164AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{AB33601A-E509-4D70-ADDC-02C066849C23}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{AB33601A-E509-4D70-ADDC-02C066849C23}"/>
   </bookViews>
   <sheets>
     <sheet name="diff lc3shallow 1 n 2" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
   <si>
     <t>shallow 1</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>d</t>
+  </si>
+  <si>
+    <t>median large grains</t>
   </si>
 </sst>
 </file>
@@ -2015,20 +2018,20 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="5"/>
+          <c:order val="5"/>
           <c:tx>
-            <c:v>D90</c:v>
+            <c:v>median</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -2039,11 +2042,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent6"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -2053,7 +2056,7 @@
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent6"/>
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
               </a:ln>
@@ -2065,8 +2068,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="3.1063677674619032E-2"/>
-                  <c:y val="0.15558388616777233"/>
+                  <c:x val="1.2629965787735535E-2"/>
+                  <c:y val="0.10797244094488188"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2101,30 +2104,27 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'D50-ksn'!$B$2:$H$2</c:f>
+              <c:f>'D50-ksn'!$B$12:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>474.05996705833724</c:v>
+                  <c:v>658.99468081034115</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>571.32109231095205</c:v>
+                  <c:v>668.91790747805521</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1673.1550481102436</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1665.7903487689593</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.0">
-                  <c:v>487.1</c:v>
+                  <c:v>1901.3427656942345</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>836.45</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>924.53948951473865</c:v>
+                  <c:v>919.02987229616508</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>532.43948266692178</c:v>
+                  <c:v>806.93865452319847</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2159,288 +2159,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D4DC-4BD3-8ACD-ACB46BB73D34}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>D50</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="7.7015635405648916E-2"/>
-                  <c:y val="4.2650918635170607E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'D50-ksn'!$B$4:$H$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>198.00281020336416</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>256.61885915970078</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>850.07263091425239</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.0">
-                  <c:v>213.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>363.00745077680978</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>247.15755278654058</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'D50-ksn'!$B$8:$H$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>17.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>57.9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>117.7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>59.2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44.8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-D4DC-4BD3-8ACD-ACB46BB73D34}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:v>D10</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-4.530256634587343E-2"/>
-                  <c:y val="9.8425196850393706E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'D50-ksn'!$B$6:$H$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>123.07707176109511</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>174.82671071172081</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>525.9804697242206</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>522.1801363088058</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0.0">
-                  <c:v>124.20206553821464</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>242.10077400943081</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>171.4960802591504</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'D50-ksn'!$B$8:$H$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>17.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>57.9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>117.7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>59.2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44.8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-D4DC-4BD3-8ACD-ACB46BB73D34}"/>
+              <c16:uniqueId val="{00000006-5784-460B-A846-7B97A4D86CDB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2456,6 +2175,162 @@
         <c:axId val="1826501359"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:v>D90</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:trendline>
+                  <c:spPr>
+                    <a:ln w="19050" cap="rnd">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                      <a:prstDash val="sysDot"/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:trendlineType val="linear"/>
+                  <c:dispRSqr val="1"/>
+                  <c:dispEq val="1"/>
+                  <c:trendlineLbl>
+                    <c:layout>
+                      <c:manualLayout>
+                        <c:x val="3.1063677674619032E-2"/>
+                        <c:y val="0.15558388616777233"/>
+                      </c:manualLayout>
+                    </c:layout>
+                    <c:numFmt formatCode="General" sourceLinked="0"/>
+                    <c:spPr>
+                      <a:noFill/>
+                      <a:ln>
+                        <a:noFill/>
+                      </a:ln>
+                      <a:effectLst/>
+                    </c:spPr>
+                    <c:txPr>
+                      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr>
+                          <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="65000"/>
+                                <a:lumOff val="35000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:defRPr>
+                        </a:pPr>
+                        <a:endParaRPr lang="en-US"/>
+                      </a:p>
+                    </c:txPr>
+                  </c:trendlineLbl>
+                </c:trendline>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'D50-ksn'!$B$2:$H$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>474.05996705833724</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>571.32109231095205</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1673.1550481102436</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1665.7903487689593</c:v>
+                      </c:pt>
+                      <c:pt idx="4" formatCode="0.0">
+                        <c:v>487.1</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>924.53948951473865</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>532.43948266692178</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'D50-ksn'!$B$8:$H$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>17.399999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>57.9</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>117.7</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>59.2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>44.8</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-D4DC-4BD3-8ACD-ACB46BB73D34}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
             <c15:filteredScatterSeries>
               <c15:ser>
                 <c:idx val="1"/>
@@ -2531,8 +2406,8 @@
                 </c:trendline>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'D50-ksn'!$B$3:$H$3</c15:sqref>
                         </c15:formulaRef>
@@ -2564,8 +2439,8 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'D50-ksn'!$B$8:$H$8</c15:sqref>
                         </c15:formulaRef>
@@ -2596,9 +2471,162 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-D4DC-4BD3-8ACD-ACB46BB73D34}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:v>D50</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:trendline>
+                  <c:spPr>
+                    <a:ln w="19050" cap="rnd">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                      <a:prstDash val="sysDot"/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:trendlineType val="linear"/>
+                  <c:dispRSqr val="1"/>
+                  <c:dispEq val="1"/>
+                  <c:trendlineLbl>
+                    <c:layout>
+                      <c:manualLayout>
+                        <c:x val="7.7015635405648916E-2"/>
+                        <c:y val="4.2650918635170607E-2"/>
+                      </c:manualLayout>
+                    </c:layout>
+                    <c:numFmt formatCode="General" sourceLinked="0"/>
+                    <c:spPr>
+                      <a:noFill/>
+                      <a:ln>
+                        <a:noFill/>
+                      </a:ln>
+                      <a:effectLst/>
+                    </c:spPr>
+                    <c:txPr>
+                      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr>
+                          <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="65000"/>
+                                <a:lumOff val="35000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:defRPr>
+                        </a:pPr>
+                        <a:endParaRPr lang="en-US"/>
+                      </a:p>
+                    </c:txPr>
+                  </c:trendlineLbl>
+                </c:trendline>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'D50-ksn'!$B$4:$H$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>198.00281020336416</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>256.61885915970078</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>850.07263091425239</c:v>
+                      </c:pt>
+                      <c:pt idx="4" formatCode="0.0">
+                        <c:v>213.4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>363.00745077680978</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>247.15755278654058</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'D50-ksn'!$B$8:$H$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>17.399999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>57.9</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>117.7</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>59.2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>44.8</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-D4DC-4BD3-8ACD-ACB46BB73D34}"/>
+                    <c16:uniqueId val="{00000003-D4DC-4BD3-8ACD-ACB46BB73D34}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -2684,7 +2712,7 @@
                 </c:trendline>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'D50-ksn'!$B$5:$H$5</c15:sqref>
@@ -2711,6 +2739,162 @@
                       </c:pt>
                       <c:pt idx="6">
                         <c:v>182.2026700324831</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'D50-ksn'!$B$8:$H$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>17.399999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>57.9</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>117.7</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>59.2</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>44.8</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-D4DC-4BD3-8ACD-ACB46BB73D34}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:v>D10</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="25400" cap="rnd">
+                    <a:noFill/>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:trendline>
+                  <c:spPr>
+                    <a:ln w="19050" cap="rnd">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5"/>
+                      </a:solidFill>
+                      <a:prstDash val="sysDot"/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:trendlineType val="linear"/>
+                  <c:dispRSqr val="1"/>
+                  <c:dispEq val="1"/>
+                  <c:trendlineLbl>
+                    <c:layout>
+                      <c:manualLayout>
+                        <c:x val="-4.530256634587343E-2"/>
+                        <c:y val="9.8425196850393706E-2"/>
+                      </c:manualLayout>
+                    </c:layout>
+                    <c:numFmt formatCode="General" sourceLinked="0"/>
+                    <c:spPr>
+                      <a:noFill/>
+                      <a:ln>
+                        <a:noFill/>
+                      </a:ln>
+                      <a:effectLst/>
+                    </c:spPr>
+                    <c:txPr>
+                      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                      <a:lstStyle/>
+                      <a:p>
+                        <a:pPr>
+                          <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="65000"/>
+                                <a:lumOff val="35000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:defRPr>
+                        </a:pPr>
+                        <a:endParaRPr lang="en-US"/>
+                      </a:p>
+                    </c:txPr>
+                  </c:trendlineLbl>
+                </c:trendline>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'D50-ksn'!$B$6:$H$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>123.07707176109511</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>174.82671071172081</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>525.9804697242206</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>522.1801363088058</c:v>
+                      </c:pt>
+                      <c:pt idx="4" formatCode="0.0">
+                        <c:v>124.20206553821464</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>242.10077400943081</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>171.4960802591504</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2751,7 +2935,7 @@
                 <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000004-D4DC-4BD3-8ACD-ACB46BB73D34}"/>
+                    <c16:uniqueId val="{00000005-D4DC-4BD3-8ACD-ACB46BB73D34}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -2780,6 +2964,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Median Sediment</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Diameter (mm)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2843,6 +3087,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Channel Steepness (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2892,37 +3191,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -4756,16 +5024,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4794,9 +5062,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4834,7 +5102,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4940,7 +5208,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5082,7 +5350,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5672,12 +5940,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{286F7C6C-020F-453C-8BF6-FCD39A3E6160}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AD11" sqref="AD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="16.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
@@ -5859,6 +6128,29 @@
       </c>
       <c r="G10" s="1"/>
     </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12">
+        <v>658.99468081034115</v>
+      </c>
+      <c r="C12">
+        <v>668.91790747805521</v>
+      </c>
+      <c r="D12">
+        <v>1901.3427656942345</v>
+      </c>
+      <c r="F12">
+        <v>836.45</v>
+      </c>
+      <c r="G12">
+        <v>919.02987229616508</v>
+      </c>
+      <c r="H12">
+        <v>806.93865452319847</v>
+      </c>
+    </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
         <v>29</v>
